--- a/processes/data-exploration/lemonade_data_exploration.xlsx
+++ b/processes/data-exploration/lemonade_data_exploration.xlsx
@@ -5,19 +5,31 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zubquzaini/Documents/data_analysis/data-analysis-lemonade-sales/dataset/clean/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zubquzaini/Documents/data_analysis/data-analysis-lemonade-sales/processes/data-exploration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC570E0-B871-A646-956C-3B7E3E8949C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCF177B-5107-9B4C-9DC1-6E54E4B7A889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lemonade Original" sheetId="1" r:id="rId1"/>
     <sheet name="Lemonade Clean" sheetId="7" r:id="rId2"/>
+    <sheet name="Lemonade Data Exploration" sheetId="9" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="Slicer_Day">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
+      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId4"/>
+      </x15:slicerCaches>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -32,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -59,6 +71,15 @@
   </si>
   <si>
     <t>Beach</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Day</t>
   </si>
 </sst>
 </file>
@@ -590,7 +611,20 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -601,6 +635,130 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14195</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>663015</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180221</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Day">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCD32720-1D88-5041-BDCB-676A2FD6C4E7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Day"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8007724" y="552823"/>
+              <a:ext cx="1993526" cy="2428869"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can’t be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Day" xr10:uid="{6C218F10-C3BB-0F46-8E0F-D110F2C179FE}" sourceName="Day">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="2" column="10"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Day" xr10:uid="{412465AE-E0B9-AA45-853D-0872BBDAF00B}" cache="Slicer_Day" caption="Day" rowHeight="230716"/>
+</slicers>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B9658051-DB12-4B45-AF34-43C72E0DD2D3}" name="Table2" displayName="Table2" ref="A1:J32" totalsRowShown="0">
+  <autoFilter ref="A1:J32" xr:uid="{B9658051-DB12-4B45-AF34-43C72E0DD2D3}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{EFAB94E3-6BB0-2045-B546-207A6256F449}" name="Date" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{64AD10D0-DF2E-204F-9A2E-BCA8D49BEB87}" name="Day" dataDxfId="0">
+      <calculatedColumnFormula>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{C3FA5E41-4CE9-374B-B63B-F48953465538}" name="Location"/>
+    <tableColumn id="3" xr3:uid="{9D672532-CB48-A249-A611-C3A151B48101}" name="Lemon"/>
+    <tableColumn id="4" xr3:uid="{2734E7CE-AD9E-704A-8885-55E4D6A8884B}" name="Orange"/>
+    <tableColumn id="5" xr3:uid="{F0738C15-3DD7-4940-B3C6-7AB81A462B8D}" name="Temperature"/>
+    <tableColumn id="6" xr3:uid="{D5B90675-BC57-644B-BB89-4EA6810706E7}" name="Leaflets"/>
+    <tableColumn id="7" xr3:uid="{588334A6-9D7E-654A-8B61-E2433474B77C}" name="Price"/>
+    <tableColumn id="8" xr3:uid="{24693B7B-5803-5A40-9344-FFB16F9F9CE6}" name="Sales" dataDxfId="2">
+      <calculatedColumnFormula>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{B49BD8DE-506A-D042-8F38-41F6528509E3}" name="Revenue" dataDxfId="1">
+      <calculatedColumnFormula>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1670,8 +1828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70140173-A59C-D94E-9AB4-4689497F90FF}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2441,4 +2599,1153 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC17430E-FD0A-7B41-A9E1-7391D4E0BB11}">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>42552</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>97</v>
+      </c>
+      <c r="E2">
+        <v>67</v>
+      </c>
+      <c r="F2">
+        <v>70</v>
+      </c>
+      <c r="G2">
+        <v>90</v>
+      </c>
+      <c r="H2">
+        <v>0.25</v>
+      </c>
+      <c r="I2">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>164</v>
+      </c>
+      <c r="J2">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>42553</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>98</v>
+      </c>
+      <c r="E3">
+        <v>67</v>
+      </c>
+      <c r="F3">
+        <v>72</v>
+      </c>
+      <c r="G3">
+        <v>90</v>
+      </c>
+      <c r="H3">
+        <v>0.25</v>
+      </c>
+      <c r="I3">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>165</v>
+      </c>
+      <c r="J3">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>41.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>42554</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>110</v>
+      </c>
+      <c r="E4">
+        <v>77</v>
+      </c>
+      <c r="F4">
+        <v>71</v>
+      </c>
+      <c r="G4">
+        <v>104</v>
+      </c>
+      <c r="H4">
+        <v>0.25</v>
+      </c>
+      <c r="I4">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>187</v>
+      </c>
+      <c r="J4">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>46.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>42555</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>134</v>
+      </c>
+      <c r="E5">
+        <v>99</v>
+      </c>
+      <c r="F5">
+        <v>76</v>
+      </c>
+      <c r="G5">
+        <v>98</v>
+      </c>
+      <c r="H5">
+        <v>0.25</v>
+      </c>
+      <c r="I5">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>233</v>
+      </c>
+      <c r="J5">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>58.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>42556</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>159</v>
+      </c>
+      <c r="E6">
+        <v>118</v>
+      </c>
+      <c r="F6">
+        <v>78</v>
+      </c>
+      <c r="G6">
+        <v>135</v>
+      </c>
+      <c r="H6">
+        <v>0.25</v>
+      </c>
+      <c r="I6">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>277</v>
+      </c>
+      <c r="J6">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>69.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>42557</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>103</v>
+      </c>
+      <c r="E7">
+        <v>69</v>
+      </c>
+      <c r="F7">
+        <v>82</v>
+      </c>
+      <c r="G7">
+        <v>90</v>
+      </c>
+      <c r="H7">
+        <v>0.25</v>
+      </c>
+      <c r="I7">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>172</v>
+      </c>
+      <c r="J7">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>42558</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>143</v>
+      </c>
+      <c r="E8">
+        <v>101</v>
+      </c>
+      <c r="F8">
+        <v>81</v>
+      </c>
+      <c r="G8">
+        <v>135</v>
+      </c>
+      <c r="H8">
+        <v>0.25</v>
+      </c>
+      <c r="I8">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>244</v>
+      </c>
+      <c r="J8">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>42559</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>123</v>
+      </c>
+      <c r="E9">
+        <v>86</v>
+      </c>
+      <c r="F9">
+        <v>82</v>
+      </c>
+      <c r="G9">
+        <v>113</v>
+      </c>
+      <c r="H9">
+        <v>0.25</v>
+      </c>
+      <c r="I9">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>209</v>
+      </c>
+      <c r="J9">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>52.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>42560</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>134</v>
+      </c>
+      <c r="E10">
+        <v>95</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <v>126</v>
+      </c>
+      <c r="H10">
+        <v>0.25</v>
+      </c>
+      <c r="I10">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>229</v>
+      </c>
+      <c r="J10">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>57.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>42561</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>140</v>
+      </c>
+      <c r="E11">
+        <v>98</v>
+      </c>
+      <c r="F11">
+        <v>82</v>
+      </c>
+      <c r="G11">
+        <v>131</v>
+      </c>
+      <c r="H11">
+        <v>0.25</v>
+      </c>
+      <c r="I11">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>238</v>
+      </c>
+      <c r="J11">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>42562</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>162</v>
+      </c>
+      <c r="E12">
+        <v>120</v>
+      </c>
+      <c r="F12">
+        <v>83</v>
+      </c>
+      <c r="G12">
+        <v>135</v>
+      </c>
+      <c r="H12">
+        <v>0.25</v>
+      </c>
+      <c r="I12">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>282</v>
+      </c>
+      <c r="J12">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>42563</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>130</v>
+      </c>
+      <c r="E13">
+        <v>95</v>
+      </c>
+      <c r="F13">
+        <v>84</v>
+      </c>
+      <c r="G13">
+        <v>99</v>
+      </c>
+      <c r="H13">
+        <v>0.25</v>
+      </c>
+      <c r="I13">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>225</v>
+      </c>
+      <c r="J13">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>42564</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>109</v>
+      </c>
+      <c r="E14">
+        <v>75</v>
+      </c>
+      <c r="F14">
+        <v>77</v>
+      </c>
+      <c r="G14">
+        <v>99</v>
+      </c>
+      <c r="H14">
+        <v>0.25</v>
+      </c>
+      <c r="I14">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>184</v>
+      </c>
+      <c r="J14">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>42565</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>122</v>
+      </c>
+      <c r="E15">
+        <v>85</v>
+      </c>
+      <c r="F15">
+        <v>78</v>
+      </c>
+      <c r="G15">
+        <v>113</v>
+      </c>
+      <c r="H15">
+        <v>0.25</v>
+      </c>
+      <c r="I15">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>207</v>
+      </c>
+      <c r="J15">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>51.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>42566</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>98</v>
+      </c>
+      <c r="E16">
+        <v>62</v>
+      </c>
+      <c r="F16">
+        <v>75</v>
+      </c>
+      <c r="G16">
+        <v>108</v>
+      </c>
+      <c r="H16">
+        <v>0.5</v>
+      </c>
+      <c r="I16">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>160</v>
+      </c>
+      <c r="J16">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>42567</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>81</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="F17">
+        <v>74</v>
+      </c>
+      <c r="G17">
+        <v>90</v>
+      </c>
+      <c r="H17">
+        <v>0.5</v>
+      </c>
+      <c r="I17">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>131</v>
+      </c>
+      <c r="J17">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>42568</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>115</v>
+      </c>
+      <c r="E18">
+        <v>76</v>
+      </c>
+      <c r="F18">
+        <v>77</v>
+      </c>
+      <c r="G18">
+        <v>126</v>
+      </c>
+      <c r="H18">
+        <v>0.5</v>
+      </c>
+      <c r="I18">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>191</v>
+      </c>
+      <c r="J18">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>42569</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>131</v>
+      </c>
+      <c r="E19">
+        <v>92</v>
+      </c>
+      <c r="F19">
+        <v>81</v>
+      </c>
+      <c r="G19">
+        <v>122</v>
+      </c>
+      <c r="H19">
+        <v>0.5</v>
+      </c>
+      <c r="I19">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>223</v>
+      </c>
+      <c r="J19">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>42570</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>122</v>
+      </c>
+      <c r="E20">
+        <v>85</v>
+      </c>
+      <c r="F20">
+        <v>78</v>
+      </c>
+      <c r="G20">
+        <v>113</v>
+      </c>
+      <c r="H20">
+        <v>0.5</v>
+      </c>
+      <c r="I20">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>207</v>
+      </c>
+      <c r="J20">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>42571</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>71</v>
+      </c>
+      <c r="E21">
+        <v>42</v>
+      </c>
+      <c r="F21">
+        <v>70</v>
+      </c>
+      <c r="G21">
+        <v>108</v>
+      </c>
+      <c r="H21">
+        <v>0.5</v>
+      </c>
+      <c r="I21">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>113</v>
+      </c>
+      <c r="J21">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>83</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>77</v>
+      </c>
+      <c r="G22">
+        <v>90</v>
+      </c>
+      <c r="H22">
+        <v>0.5</v>
+      </c>
+      <c r="I22">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>133</v>
+      </c>
+      <c r="J22">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>42573</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>112</v>
+      </c>
+      <c r="E23">
+        <v>75</v>
+      </c>
+      <c r="F23">
+        <v>80</v>
+      </c>
+      <c r="G23">
+        <v>108</v>
+      </c>
+      <c r="H23">
+        <v>0.5</v>
+      </c>
+      <c r="I23">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>187</v>
+      </c>
+      <c r="J23">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>42574</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>120</v>
+      </c>
+      <c r="E24">
+        <v>82</v>
+      </c>
+      <c r="F24">
+        <v>81</v>
+      </c>
+      <c r="G24">
+        <v>117</v>
+      </c>
+      <c r="H24">
+        <v>0.5</v>
+      </c>
+      <c r="I24">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>202</v>
+      </c>
+      <c r="J24">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>42575</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>121</v>
+      </c>
+      <c r="E25">
+        <v>82</v>
+      </c>
+      <c r="F25">
+        <v>82</v>
+      </c>
+      <c r="G25">
+        <v>117</v>
+      </c>
+      <c r="H25">
+        <v>0.5</v>
+      </c>
+      <c r="I25">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>203</v>
+      </c>
+      <c r="J25">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>42576</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>156</v>
+      </c>
+      <c r="E26">
+        <v>113</v>
+      </c>
+      <c r="F26">
+        <v>84</v>
+      </c>
+      <c r="G26">
+        <v>135</v>
+      </c>
+      <c r="H26">
+        <v>0.5</v>
+      </c>
+      <c r="I26">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>269</v>
+      </c>
+      <c r="J26">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>134.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>42577</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>176</v>
+      </c>
+      <c r="E27">
+        <v>129</v>
+      </c>
+      <c r="F27">
+        <v>83</v>
+      </c>
+      <c r="G27">
+        <v>158</v>
+      </c>
+      <c r="H27">
+        <v>0.35</v>
+      </c>
+      <c r="I27">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>305</v>
+      </c>
+      <c r="J27">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>106.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>42578</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>104</v>
+      </c>
+      <c r="E28">
+        <v>68</v>
+      </c>
+      <c r="F28">
+        <v>80</v>
+      </c>
+      <c r="G28">
+        <v>99</v>
+      </c>
+      <c r="H28">
+        <v>0.35</v>
+      </c>
+      <c r="I28">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>172</v>
+      </c>
+      <c r="J28">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>60.199999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>42579</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>96</v>
+      </c>
+      <c r="E29">
+        <v>63</v>
+      </c>
+      <c r="F29">
+        <v>82</v>
+      </c>
+      <c r="G29">
+        <v>90</v>
+      </c>
+      <c r="H29">
+        <v>0.35</v>
+      </c>
+      <c r="I29">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>159</v>
+      </c>
+      <c r="J29">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>55.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>42580</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>66</v>
+      </c>
+      <c r="F30">
+        <v>81</v>
+      </c>
+      <c r="G30">
+        <v>95</v>
+      </c>
+      <c r="H30">
+        <v>0.35</v>
+      </c>
+      <c r="I30">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>166</v>
+      </c>
+      <c r="J30">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>58.099999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>42581</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>88</v>
+      </c>
+      <c r="E31">
+        <v>57</v>
+      </c>
+      <c r="F31">
+        <v>82</v>
+      </c>
+      <c r="G31">
+        <v>81</v>
+      </c>
+      <c r="H31">
+        <v>0.35</v>
+      </c>
+      <c r="I31">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>145</v>
+      </c>
+      <c r="J31">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>50.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>42582</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>76</v>
+      </c>
+      <c r="E32">
+        <v>47</v>
+      </c>
+      <c r="F32">
+        <v>82</v>
+      </c>
+      <c r="G32">
+        <v>68</v>
+      </c>
+      <c r="H32">
+        <v>0.35</v>
+      </c>
+      <c r="I32">
+        <f>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</f>
+        <v>123</v>
+      </c>
+      <c r="J32">
+        <f>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</f>
+        <v>43.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/processes/data-exploration/lemonade_data_exploration.xlsx
+++ b/processes/data-exploration/lemonade_data_exploration.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zubquzaini/Documents/data_analysis/data-analysis-lemonade-sales/processes/data-exploration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCF177B-5107-9B4C-9DC1-6E54E4B7A889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CDC35D-3862-A34A-9F7B-FE7E89D887B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lemonade Original" sheetId="1" r:id="rId1"/>
     <sheet name="Lemonade Clean" sheetId="7" r:id="rId2"/>
     <sheet name="Lemonade Data Exploration" sheetId="9" r:id="rId3"/>
+    <sheet name="Lemonade Data Exploration 2" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Slicer_Day">#N/A</definedName>
+    <definedName name="Slicer_Day1">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,8 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId4"/>
+        <x14:slicerCache r:id="rId5"/>
+        <x14:slicerCache r:id="rId6"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -86,6 +89,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;RM&quot;* #,##0.00_);_(&quot;RM&quot;* \(#,##0.00\);_(&quot;RM&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-[$RM-4409]* #,##0.00_-;\-[$RM-4409]* #,##0.00_-;_-[$RM-4409]* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -519,7 +526,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -562,12 +569,16 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -595,6 +606,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="42" builtinId="4"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -611,7 +623,76 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$RM-4409]* #,##0.00_-;\-[$RM-4409]* #,##0.00_-;_-[$RM-4409]* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -720,11 +801,104 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14195</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>663015</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2795</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Day 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37CCD42E-AE68-C841-9644-4FD23A1C5A64}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Day 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8303062" y="196600"/>
+              <a:ext cx="2003486" cy="2532462"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can’t be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Day" xr10:uid="{6C218F10-C3BB-0F46-8E0F-D110F2C179FE}" sourceName="Day">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
       <x15:tableSlicerCache tableId="2" column="10"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Day1" xr10:uid="{BA869C86-487C-5941-B13E-F83192E1C831}" sourceName="Day">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="3" column="10"/>
     </x:ext>
   </extLst>
 </slicerCacheDefinition>
@@ -736,12 +910,18 @@
 </slicers>
 </file>
 
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Day 1" xr10:uid="{9433AC45-C03B-064B-B161-7E7B42599CDE}" cache="Slicer_Day1" caption="Day" rowHeight="230716"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B9658051-DB12-4B45-AF34-43C72E0DD2D3}" name="Table2" displayName="Table2" ref="A1:J32" totalsRowShown="0">
   <autoFilter ref="A1:J32" xr:uid="{B9658051-DB12-4B45-AF34-43C72E0DD2D3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{EFAB94E3-6BB0-2045-B546-207A6256F449}" name="Date" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{64AD10D0-DF2E-204F-9A2E-BCA8D49BEB87}" name="Day" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{EFAB94E3-6BB0-2045-B546-207A6256F449}" name="Date" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{64AD10D0-DF2E-204F-9A2E-BCA8D49BEB87}" name="Day" dataDxfId="11">
       <calculatedColumnFormula>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{C3FA5E41-4CE9-374B-B63B-F48953465538}" name="Location"/>
@@ -750,11 +930,44 @@
     <tableColumn id="5" xr3:uid="{F0738C15-3DD7-4940-B3C6-7AB81A462B8D}" name="Temperature"/>
     <tableColumn id="6" xr3:uid="{D5B90675-BC57-644B-BB89-4EA6810706E7}" name="Leaflets"/>
     <tableColumn id="7" xr3:uid="{588334A6-9D7E-654A-8B61-E2433474B77C}" name="Price"/>
-    <tableColumn id="8" xr3:uid="{24693B7B-5803-5A40-9344-FFB16F9F9CE6}" name="Sales" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{24693B7B-5803-5A40-9344-FFB16F9F9CE6}" name="Sales" dataDxfId="13">
       <calculatedColumnFormula>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B49BD8DE-506A-D042-8F38-41F6528509E3}" name="Revenue" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{B49BD8DE-506A-D042-8F38-41F6528509E3}" name="Revenue" dataDxfId="12">
       <calculatedColumnFormula>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{04675377-B1F2-0F4B-ADEE-23965864F86E}" name="Table24" displayName="Table24" ref="A1:J33" totalsRowCount="1">
+  <autoFilter ref="A1:J32" xr:uid="{B9658051-DB12-4B45-AF34-43C72E0DD2D3}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{FFDA4435-0BB4-474B-B783-888F8B4A1521}" name="Date" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="3">
+      <totalsRowFormula>COUNT(Table24[Date])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{92CBF57E-2AB2-1D4D-899F-CA20D1CBA9CD}" name="Day" dataDxfId="9" totalsRowDxfId="2">
+      <calculatedColumnFormula>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{DB267462-1084-394B-8B01-2CDAD7B37653}" name="Location"/>
+    <tableColumn id="3" xr3:uid="{65DAAD25-3F7E-684A-B1B8-3BAB00C73227}" name="Lemon" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(Table24[Lemon])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{1FF9C4B3-516B-8147-9BC6-11A7597F0201}" name="Orange" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(Table24[Orange])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{629FAB21-C7C9-7345-A878-175A471AE89F}" name="Temperature" totalsRowFunction="custom">
+      <totalsRowFormula>MAX(Table24[Temperature])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{16D553C2-93BD-D645-A0FE-69F77ABBF952}" name="Leaflets"/>
+    <tableColumn id="7" xr3:uid="{F08F5317-9E6D-BA42-AA2C-B02D0F84BE29}" name="Price"/>
+    <tableColumn id="8" xr3:uid="{3422B43D-6794-2548-BD7D-0DE0D784512E}" name="Sales" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="1">
+      <calculatedColumnFormula>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{C7725E0A-2BEB-2A48-B28F-B47BCFAD84EA}" name="Revenue" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="0" totalsRowCellStyle="Currency">
+      <calculatedColumnFormula>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2605,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC17430E-FD0A-7B41-A9E1-7391D4E0BB11}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+    <sheetView zoomScale="136" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -3748,4 +3961,1278 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF662D5E-2324-9840-8D2F-A4BF4C6094CB}">
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>42552</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>97</v>
+      </c>
+      <c r="E2">
+        <v>67</v>
+      </c>
+      <c r="F2">
+        <v>70</v>
+      </c>
+      <c r="G2">
+        <v>90</v>
+      </c>
+      <c r="H2">
+        <v>0.25</v>
+      </c>
+      <c r="I2">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>164</v>
+      </c>
+      <c r="J2" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>42553</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>98</v>
+      </c>
+      <c r="E3">
+        <v>67</v>
+      </c>
+      <c r="F3">
+        <v>72</v>
+      </c>
+      <c r="G3">
+        <v>90</v>
+      </c>
+      <c r="H3">
+        <v>0.25</v>
+      </c>
+      <c r="I3">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>165</v>
+      </c>
+      <c r="J3" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>41.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>42554</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>110</v>
+      </c>
+      <c r="E4">
+        <v>77</v>
+      </c>
+      <c r="F4">
+        <v>71</v>
+      </c>
+      <c r="G4">
+        <v>104</v>
+      </c>
+      <c r="H4">
+        <v>0.25</v>
+      </c>
+      <c r="I4">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>187</v>
+      </c>
+      <c r="J4" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>46.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>42555</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>134</v>
+      </c>
+      <c r="E5">
+        <v>99</v>
+      </c>
+      <c r="F5">
+        <v>76</v>
+      </c>
+      <c r="G5">
+        <v>98</v>
+      </c>
+      <c r="H5">
+        <v>0.25</v>
+      </c>
+      <c r="I5">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>233</v>
+      </c>
+      <c r="J5" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>58.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>42556</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>159</v>
+      </c>
+      <c r="E6">
+        <v>118</v>
+      </c>
+      <c r="F6">
+        <v>78</v>
+      </c>
+      <c r="G6">
+        <v>135</v>
+      </c>
+      <c r="H6">
+        <v>0.25</v>
+      </c>
+      <c r="I6">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>277</v>
+      </c>
+      <c r="J6" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>69.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>42557</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>103</v>
+      </c>
+      <c r="E7">
+        <v>69</v>
+      </c>
+      <c r="F7">
+        <v>82</v>
+      </c>
+      <c r="G7">
+        <v>90</v>
+      </c>
+      <c r="H7">
+        <v>0.25</v>
+      </c>
+      <c r="I7">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>172</v>
+      </c>
+      <c r="J7" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>42558</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>143</v>
+      </c>
+      <c r="E8">
+        <v>101</v>
+      </c>
+      <c r="F8">
+        <v>81</v>
+      </c>
+      <c r="G8">
+        <v>135</v>
+      </c>
+      <c r="H8">
+        <v>0.25</v>
+      </c>
+      <c r="I8">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>244</v>
+      </c>
+      <c r="J8" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>42559</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>123</v>
+      </c>
+      <c r="E9">
+        <v>86</v>
+      </c>
+      <c r="F9">
+        <v>82</v>
+      </c>
+      <c r="G9">
+        <v>113</v>
+      </c>
+      <c r="H9">
+        <v>0.25</v>
+      </c>
+      <c r="I9">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>209</v>
+      </c>
+      <c r="J9" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>52.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>42560</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>134</v>
+      </c>
+      <c r="E10">
+        <v>95</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <v>126</v>
+      </c>
+      <c r="H10">
+        <v>0.25</v>
+      </c>
+      <c r="I10">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>229</v>
+      </c>
+      <c r="J10" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>57.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>42561</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>140</v>
+      </c>
+      <c r="E11">
+        <v>98</v>
+      </c>
+      <c r="F11">
+        <v>82</v>
+      </c>
+      <c r="G11">
+        <v>131</v>
+      </c>
+      <c r="H11">
+        <v>0.25</v>
+      </c>
+      <c r="I11">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>238</v>
+      </c>
+      <c r="J11" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>42562</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>162</v>
+      </c>
+      <c r="E12">
+        <v>120</v>
+      </c>
+      <c r="F12">
+        <v>83</v>
+      </c>
+      <c r="G12">
+        <v>135</v>
+      </c>
+      <c r="H12">
+        <v>0.25</v>
+      </c>
+      <c r="I12">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>282</v>
+      </c>
+      <c r="J12" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>42563</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>130</v>
+      </c>
+      <c r="E13">
+        <v>95</v>
+      </c>
+      <c r="F13">
+        <v>84</v>
+      </c>
+      <c r="G13">
+        <v>99</v>
+      </c>
+      <c r="H13">
+        <v>0.25</v>
+      </c>
+      <c r="I13">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>225</v>
+      </c>
+      <c r="J13" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>42564</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>109</v>
+      </c>
+      <c r="E14">
+        <v>75</v>
+      </c>
+      <c r="F14">
+        <v>77</v>
+      </c>
+      <c r="G14">
+        <v>99</v>
+      </c>
+      <c r="H14">
+        <v>0.25</v>
+      </c>
+      <c r="I14">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>184</v>
+      </c>
+      <c r="J14" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>42565</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>122</v>
+      </c>
+      <c r="E15">
+        <v>85</v>
+      </c>
+      <c r="F15">
+        <v>78</v>
+      </c>
+      <c r="G15">
+        <v>113</v>
+      </c>
+      <c r="H15">
+        <v>0.25</v>
+      </c>
+      <c r="I15">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>207</v>
+      </c>
+      <c r="J15" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>51.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>42566</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>98</v>
+      </c>
+      <c r="E16">
+        <v>62</v>
+      </c>
+      <c r="F16">
+        <v>75</v>
+      </c>
+      <c r="G16">
+        <v>108</v>
+      </c>
+      <c r="H16">
+        <v>0.5</v>
+      </c>
+      <c r="I16">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>160</v>
+      </c>
+      <c r="J16" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>42567</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>81</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="F17">
+        <v>74</v>
+      </c>
+      <c r="G17">
+        <v>90</v>
+      </c>
+      <c r="H17">
+        <v>0.5</v>
+      </c>
+      <c r="I17">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>131</v>
+      </c>
+      <c r="J17" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>42568</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>115</v>
+      </c>
+      <c r="E18">
+        <v>76</v>
+      </c>
+      <c r="F18">
+        <v>77</v>
+      </c>
+      <c r="G18">
+        <v>126</v>
+      </c>
+      <c r="H18">
+        <v>0.5</v>
+      </c>
+      <c r="I18">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>191</v>
+      </c>
+      <c r="J18" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>42569</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>131</v>
+      </c>
+      <c r="E19">
+        <v>92</v>
+      </c>
+      <c r="F19">
+        <v>81</v>
+      </c>
+      <c r="G19">
+        <v>122</v>
+      </c>
+      <c r="H19">
+        <v>0.5</v>
+      </c>
+      <c r="I19">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>223</v>
+      </c>
+      <c r="J19" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>42570</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>122</v>
+      </c>
+      <c r="E20">
+        <v>85</v>
+      </c>
+      <c r="F20">
+        <v>78</v>
+      </c>
+      <c r="G20">
+        <v>113</v>
+      </c>
+      <c r="H20">
+        <v>0.5</v>
+      </c>
+      <c r="I20">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>207</v>
+      </c>
+      <c r="J20" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>42571</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>71</v>
+      </c>
+      <c r="E21">
+        <v>42</v>
+      </c>
+      <c r="F21">
+        <v>70</v>
+      </c>
+      <c r="G21">
+        <v>108</v>
+      </c>
+      <c r="H21">
+        <v>0.5</v>
+      </c>
+      <c r="I21">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>113</v>
+      </c>
+      <c r="J21" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>83</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>77</v>
+      </c>
+      <c r="G22">
+        <v>90</v>
+      </c>
+      <c r="H22">
+        <v>0.5</v>
+      </c>
+      <c r="I22">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>133</v>
+      </c>
+      <c r="J22" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>42573</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>112</v>
+      </c>
+      <c r="E23">
+        <v>75</v>
+      </c>
+      <c r="F23">
+        <v>80</v>
+      </c>
+      <c r="G23">
+        <v>108</v>
+      </c>
+      <c r="H23">
+        <v>0.5</v>
+      </c>
+      <c r="I23">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>187</v>
+      </c>
+      <c r="J23" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>42574</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>120</v>
+      </c>
+      <c r="E24">
+        <v>82</v>
+      </c>
+      <c r="F24">
+        <v>81</v>
+      </c>
+      <c r="G24">
+        <v>117</v>
+      </c>
+      <c r="H24">
+        <v>0.5</v>
+      </c>
+      <c r="I24">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>202</v>
+      </c>
+      <c r="J24" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>42575</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>121</v>
+      </c>
+      <c r="E25">
+        <v>82</v>
+      </c>
+      <c r="F25">
+        <v>82</v>
+      </c>
+      <c r="G25">
+        <v>117</v>
+      </c>
+      <c r="H25">
+        <v>0.5</v>
+      </c>
+      <c r="I25">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>203</v>
+      </c>
+      <c r="J25" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>42576</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>156</v>
+      </c>
+      <c r="E26">
+        <v>113</v>
+      </c>
+      <c r="F26">
+        <v>84</v>
+      </c>
+      <c r="G26">
+        <v>135</v>
+      </c>
+      <c r="H26">
+        <v>0.5</v>
+      </c>
+      <c r="I26">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>269</v>
+      </c>
+      <c r="J26" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>134.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>42577</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>176</v>
+      </c>
+      <c r="E27">
+        <v>129</v>
+      </c>
+      <c r="F27">
+        <v>83</v>
+      </c>
+      <c r="G27">
+        <v>158</v>
+      </c>
+      <c r="H27">
+        <v>0.35</v>
+      </c>
+      <c r="I27">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>305</v>
+      </c>
+      <c r="J27" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>106.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>42578</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>104</v>
+      </c>
+      <c r="E28">
+        <v>68</v>
+      </c>
+      <c r="F28">
+        <v>80</v>
+      </c>
+      <c r="G28">
+        <v>99</v>
+      </c>
+      <c r="H28">
+        <v>0.35</v>
+      </c>
+      <c r="I28">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>172</v>
+      </c>
+      <c r="J28" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>60.199999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>42579</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>96</v>
+      </c>
+      <c r="E29">
+        <v>63</v>
+      </c>
+      <c r="F29">
+        <v>82</v>
+      </c>
+      <c r="G29">
+        <v>90</v>
+      </c>
+      <c r="H29">
+        <v>0.35</v>
+      </c>
+      <c r="I29">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>159</v>
+      </c>
+      <c r="J29" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>55.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>42580</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>66</v>
+      </c>
+      <c r="F30">
+        <v>81</v>
+      </c>
+      <c r="G30">
+        <v>95</v>
+      </c>
+      <c r="H30">
+        <v>0.35</v>
+      </c>
+      <c r="I30">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>166</v>
+      </c>
+      <c r="J30" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>58.099999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>42581</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>88</v>
+      </c>
+      <c r="E31">
+        <v>57</v>
+      </c>
+      <c r="F31">
+        <v>82</v>
+      </c>
+      <c r="G31">
+        <v>81</v>
+      </c>
+      <c r="H31">
+        <v>0.35</v>
+      </c>
+      <c r="I31">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>145</v>
+      </c>
+      <c r="J31" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>50.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>42582</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>76</v>
+      </c>
+      <c r="E32">
+        <v>47</v>
+      </c>
+      <c r="F32">
+        <v>82</v>
+      </c>
+      <c r="G32">
+        <v>68</v>
+      </c>
+      <c r="H32">
+        <v>0.35</v>
+      </c>
+      <c r="I32">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>123</v>
+      </c>
+      <c r="J32" s="3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>43.05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <f>COUNT(Table24[Date])</f>
+        <v>31</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="D33">
+        <f>AVERAGE(Table24[Lemon])</f>
+        <v>116.58064516129032</v>
+      </c>
+      <c r="E33">
+        <f>AVERAGE(Table24[Orange])</f>
+        <v>80.354838709677423</v>
+      </c>
+      <c r="F33">
+        <f>MAX(Table24[Temperature])</f>
+        <v>84</v>
+      </c>
+      <c r="I33" s="2">
+        <f>SUBTOTAL(109,Table24[Sales])</f>
+        <v>6105</v>
+      </c>
+      <c r="J33" s="4">
+        <f>SUBTOTAL(109,Table24[Revenue])</f>
+        <v>2138</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J2:J32">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{637367D9-8F7C-F147-82FB-593ED6D95174}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F32">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I32">
+    <cfRule type="top10" dxfId="6" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="5" priority="1" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{637367D9-8F7C-F147-82FB-593ED6D95174}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J2:J32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{955C75CF-FA39-4F4E-8E06-9BA53C798AD8}">
+            <x14:iconSet iconSet="3Stars">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G2:G32</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{992D7072-96B2-D44C-B31A-CB82FC7B730F}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Lemonade Data Exploration 2'!I2:I32</xm:f>
+              <xm:sqref>I34</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{965A5A0B-D6BF-494F-945A-5AE0EB36064B}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Lemonade Data Exploration 2'!H2:H32</xm:f>
+              <xm:sqref>H33</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/processes/data-exploration/lemonade_data_exploration.xlsx
+++ b/processes/data-exploration/lemonade_data_exploration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zubquzaini/Documents/data_analysis/data-analysis-lemonade-sales/processes/data-exploration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CDC35D-3862-A34A-9F7B-FE7E89D887B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A48557B-1078-D445-8A36-EFBB23393181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lemonade Original" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;RM&quot;* #,##0.00_);_(&quot;RM&quot;* \(#,##0.00\);_(&quot;RM&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_-[$RM-4409]* #,##0.00_-;\-[$RM-4409]* #,##0.00_-;_-[$RM-4409]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$RM-4409]* #,##0.00_-;\-[$RM-4409]* #,##0.00_-;_-[$RM-4409]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -575,7 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
@@ -623,7 +623,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="14">
     <dxf>
       <font>
         <b val="0"/>
@@ -643,7 +643,16 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$RM-4409]* #,##0.00_-;\-[$RM-4409]* #,##0.00_-;_-[$RM-4409]* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -652,14 +661,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -682,25 +684,13 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-[$RM-4409]* #,##0.00_-;\-[$RM-4409]* #,##0.00_-;_-[$RM-4409]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -733,8 +723,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>180221</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Day">
@@ -757,7 +747,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -816,8 +806,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>2795</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Day 1">
@@ -840,7 +830,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -850,8 +840,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8303062" y="196600"/>
-              <a:ext cx="2003486" cy="2532462"/>
+              <a:off x="8256495" y="192367"/>
+              <a:ext cx="1995020" cy="2477428"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -920,8 +910,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B9658051-DB12-4B45-AF34-43C72E0DD2D3}" name="Table2" displayName="Table2" ref="A1:J32" totalsRowShown="0">
   <autoFilter ref="A1:J32" xr:uid="{B9658051-DB12-4B45-AF34-43C72E0DD2D3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{EFAB94E3-6BB0-2045-B546-207A6256F449}" name="Date" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{64AD10D0-DF2E-204F-9A2E-BCA8D49BEB87}" name="Day" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{EFAB94E3-6BB0-2045-B546-207A6256F449}" name="Date" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{64AD10D0-DF2E-204F-9A2E-BCA8D49BEB87}" name="Day" dataDxfId="12">
       <calculatedColumnFormula>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{C3FA5E41-4CE9-374B-B63B-F48953465538}" name="Location"/>
@@ -930,10 +920,10 @@
     <tableColumn id="5" xr3:uid="{F0738C15-3DD7-4940-B3C6-7AB81A462B8D}" name="Temperature"/>
     <tableColumn id="6" xr3:uid="{D5B90675-BC57-644B-BB89-4EA6810706E7}" name="Leaflets"/>
     <tableColumn id="7" xr3:uid="{588334A6-9D7E-654A-8B61-E2433474B77C}" name="Price"/>
-    <tableColumn id="8" xr3:uid="{24693B7B-5803-5A40-9344-FFB16F9F9CE6}" name="Sales" dataDxfId="13">
+    <tableColumn id="8" xr3:uid="{24693B7B-5803-5A40-9344-FFB16F9F9CE6}" name="Sales" dataDxfId="11">
       <calculatedColumnFormula>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B49BD8DE-506A-D042-8F38-41F6528509E3}" name="Revenue" dataDxfId="12">
+    <tableColumn id="9" xr3:uid="{B49BD8DE-506A-D042-8F38-41F6528509E3}" name="Revenue" dataDxfId="10">
       <calculatedColumnFormula>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -945,10 +935,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{04675377-B1F2-0F4B-ADEE-23965864F86E}" name="Table24" displayName="Table24" ref="A1:J33" totalsRowCount="1">
   <autoFilter ref="A1:J32" xr:uid="{B9658051-DB12-4B45-AF34-43C72E0DD2D3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{FFDA4435-0BB4-474B-B783-888F8B4A1521}" name="Date" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="3">
+    <tableColumn id="1" xr3:uid="{FFDA4435-0BB4-474B-B783-888F8B4A1521}" name="Date" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
       <totalsRowFormula>COUNT(Table24[Date])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{92CBF57E-2AB2-1D4D-899F-CA20D1CBA9CD}" name="Day" dataDxfId="9" totalsRowDxfId="2">
+    <tableColumn id="10" xr3:uid="{92CBF57E-2AB2-1D4D-899F-CA20D1CBA9CD}" name="Day" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{DB267462-1084-394B-8B01-2CDAD7B37653}" name="Location"/>
@@ -963,10 +953,10 @@
     </tableColumn>
     <tableColumn id="6" xr3:uid="{16D553C2-93BD-D645-A0FE-69F77ABBF952}" name="Leaflets"/>
     <tableColumn id="7" xr3:uid="{F08F5317-9E6D-BA42-AA2C-B02D0F84BE29}" name="Price"/>
-    <tableColumn id="8" xr3:uid="{3422B43D-6794-2548-BD7D-0DE0D784512E}" name="Sales" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="1">
+    <tableColumn id="8" xr3:uid="{3422B43D-6794-2548-BD7D-0DE0D784512E}" name="Sales" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C7725E0A-2BEB-2A48-B28F-B47BCFAD84EA}" name="Revenue" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="0" totalsRowCellStyle="Currency">
+    <tableColumn id="9" xr3:uid="{C7725E0A-2BEB-2A48-B28F-B47BCFAD84EA}" name="Revenue" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" totalsRowCellStyle="Currency">
       <calculatedColumnFormula>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3967,8 +3957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF662D5E-2324-9840-8D2F-A4BF4C6094CB}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5150,8 +5140,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I32">
-    <cfRule type="top10" dxfId="6" priority="2" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="5" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="9" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="8" priority="1" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5194,6 +5184,22 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{965A5A0B-D6BF-494F-945A-5AE0EB36064B}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Lemonade Data Exploration 2'!H2:H32</xm:f>
+              <xm:sqref>H33</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{992D7072-96B2-D44C-B31A-CB82FC7B730F}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -5210,22 +5216,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{965A5A0B-D6BF-494F-945A-5AE0EB36064B}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Lemonade Data Exploration 2'!H2:H32</xm:f>
-              <xm:sqref>H33</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
